--- a/ProjectManagement/S_PM_05.xlsx
+++ b/ProjectManagement/S_PM_05.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sprints\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB8237AE-8689-4413-B906-76BB77EF639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DC6079-163A-494E-A4DB-C39E09C074E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24405" yWindow="-45" windowWidth="15375" windowHeight="7995" xr2:uid="{6A038CCA-25A1-424C-9143-6643E92E7A51}"/>
+    <workbookView xWindow="20370" yWindow="-2100" windowWidth="19440" windowHeight="15150" xr2:uid="{6A038CCA-25A1-424C-9143-6643E92E7A51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tools and Services" sheetId="1" r:id="rId1"/>
+    <sheet name="Working Hours" sheetId="2" r:id="rId2"/>
+    <sheet name="Assumptions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Hrs</t>
   </si>
@@ -78,13 +80,25 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>Assumptions</t>
-  </si>
-  <si>
     <t>Laptops Specifications</t>
   </si>
   <si>
     <t xml:space="preserve">Server </t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Jave</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Price of working hours and Tools &amp;services</t>
   </si>
 </sst>
 </file>
@@ -107,12 +121,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +156,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +474,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,9 +497,7 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -494,9 +513,7 @@
         <f>B2*C2</f>
         <v>120000</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -511,9 +528,6 @@
       <c r="D3" s="1">
         <f>B3*C3</f>
         <v>500000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -588,4 +602,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA189F7-73A4-4B40-8FE1-E70B1B18CAF2}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1">
+        <v>33</v>
+      </c>
+      <c r="D1">
+        <f>B1*C1</f>
+        <v>4950</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B1+B2+B3</f>
+        <v>278</v>
+      </c>
+      <c r="D5">
+        <f>D1+D2+D3</f>
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <f>D5+'Tools and Services'!D10</f>
+        <v>683086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF4124F-C3C7-4F96-8BA7-F4ABCC1CA435}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>